--- a/ExcelParser/ExcelParser/EmptyTable.xlsx
+++ b/ExcelParser/ExcelParser/EmptyTable.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22318"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EB03664D-19A1-4BD9-ADE7-AD3B8E1DEDCB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{58873B2D-D9F2-4727-8005-94E483FE9632}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,10 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
-  <si>
-    <t>этаж</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>название юр.лица</t>
   </si>
@@ -331,6 +328,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -367,19 +377,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -696,7 +693,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -704,245 +703,243 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40">
-      <c r="A1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="11" t="s">
+      <c r="A1" s="15"/>
+      <c r="B1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="19"/>
+      <c r="D1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="M1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="N1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="P1" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="Q1" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="R1" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="S1" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="T1" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="U1" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="V1" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="W1" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="X1" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="Y1" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="Z1" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="AA1" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AB1" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" s="5" t="s">
+      <c r="AC1" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" s="5" t="s">
+      <c r="AD1" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" s="5" t="s">
+      <c r="AE1" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" s="5" t="s">
+      <c r="AF1" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="AF1" s="5" t="s">
+      <c r="AG1" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="AG1" s="5" t="s">
+      <c r="AH1" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="AH1" s="5" t="s">
+      <c r="AI1" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="AI1" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="19"/>
-      <c r="AK1" s="19"/>
-      <c r="AL1" s="19"/>
-      <c r="AM1" s="19"/>
-      <c r="AN1" s="19"/>
+      <c r="AJ1" s="9"/>
+      <c r="AK1" s="9"/>
+      <c r="AL1" s="9"/>
+      <c r="AM1" s="9"/>
+      <c r="AN1" s="9"/>
     </row>
     <row r="2" spans="1:40">
-      <c r="A2" s="9"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
-      <c r="T2" s="6"/>
-      <c r="U2" s="6"/>
-      <c r="V2" s="6"/>
-      <c r="W2" s="6"/>
-      <c r="X2" s="6"/>
-      <c r="Y2" s="6"/>
-      <c r="Z2" s="6"/>
-      <c r="AA2" s="6"/>
-      <c r="AB2" s="6"/>
-      <c r="AC2" s="6"/>
-      <c r="AD2" s="6"/>
-      <c r="AE2" s="6"/>
-      <c r="AF2" s="6"/>
-      <c r="AG2" s="6"/>
-      <c r="AH2" s="6"/>
-      <c r="AI2" s="6"/>
-      <c r="AJ2" s="20"/>
-      <c r="AK2" s="20"/>
-      <c r="AL2" s="20"/>
-      <c r="AM2" s="20"/>
-      <c r="AN2" s="20"/>
+      <c r="A2" s="16"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="13"/>
+      <c r="T2" s="13"/>
+      <c r="U2" s="13"/>
+      <c r="V2" s="13"/>
+      <c r="W2" s="13"/>
+      <c r="X2" s="13"/>
+      <c r="Y2" s="13"/>
+      <c r="Z2" s="13"/>
+      <c r="AA2" s="13"/>
+      <c r="AB2" s="13"/>
+      <c r="AC2" s="13"/>
+      <c r="AD2" s="13"/>
+      <c r="AE2" s="13"/>
+      <c r="AF2" s="13"/>
+      <c r="AG2" s="13"/>
+      <c r="AH2" s="13"/>
+      <c r="AI2" s="13"/>
+      <c r="AJ2" s="10"/>
+      <c r="AK2" s="10"/>
+      <c r="AL2" s="10"/>
+      <c r="AM2" s="10"/>
+      <c r="AN2" s="10"/>
     </row>
     <row r="3" spans="1:40">
-      <c r="A3" s="9"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
-      <c r="T3" s="6"/>
-      <c r="U3" s="6"/>
-      <c r="V3" s="6"/>
-      <c r="W3" s="6"/>
-      <c r="X3" s="6"/>
-      <c r="Y3" s="6"/>
-      <c r="Z3" s="6"/>
-      <c r="AA3" s="6"/>
-      <c r="AB3" s="6"/>
-      <c r="AC3" s="6"/>
-      <c r="AD3" s="6"/>
-      <c r="AE3" s="6"/>
-      <c r="AF3" s="6"/>
-      <c r="AG3" s="6"/>
-      <c r="AH3" s="6"/>
-      <c r="AI3" s="6"/>
-      <c r="AJ3" s="20"/>
-      <c r="AK3" s="20"/>
-      <c r="AL3" s="20"/>
-      <c r="AM3" s="20"/>
-      <c r="AN3" s="20"/>
+      <c r="A3" s="16"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13"/>
+      <c r="R3" s="13"/>
+      <c r="S3" s="13"/>
+      <c r="T3" s="13"/>
+      <c r="U3" s="13"/>
+      <c r="V3" s="13"/>
+      <c r="W3" s="13"/>
+      <c r="X3" s="13"/>
+      <c r="Y3" s="13"/>
+      <c r="Z3" s="13"/>
+      <c r="AA3" s="13"/>
+      <c r="AB3" s="13"/>
+      <c r="AC3" s="13"/>
+      <c r="AD3" s="13"/>
+      <c r="AE3" s="13"/>
+      <c r="AF3" s="13"/>
+      <c r="AG3" s="13"/>
+      <c r="AH3" s="13"/>
+      <c r="AI3" s="13"/>
+      <c r="AJ3" s="10"/>
+      <c r="AK3" s="10"/>
+      <c r="AL3" s="10"/>
+      <c r="AM3" s="10"/>
+      <c r="AN3" s="10"/>
     </row>
     <row r="4" spans="1:40">
-      <c r="A4" s="10"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
-      <c r="T4" s="7"/>
-      <c r="U4" s="7"/>
-      <c r="V4" s="7"/>
-      <c r="W4" s="7"/>
-      <c r="X4" s="7"/>
-      <c r="Y4" s="7"/>
-      <c r="Z4" s="7"/>
-      <c r="AA4" s="7"/>
-      <c r="AB4" s="7"/>
-      <c r="AC4" s="7"/>
-      <c r="AD4" s="7"/>
-      <c r="AE4" s="7"/>
-      <c r="AF4" s="7"/>
-      <c r="AG4" s="7"/>
-      <c r="AH4" s="7"/>
-      <c r="AI4" s="7"/>
-      <c r="AJ4" s="21"/>
-      <c r="AK4" s="21"/>
-      <c r="AL4" s="21"/>
-      <c r="AM4" s="21"/>
-      <c r="AN4" s="21"/>
+      <c r="A4" s="17"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="14"/>
+      <c r="S4" s="14"/>
+      <c r="T4" s="14"/>
+      <c r="U4" s="14"/>
+      <c r="V4" s="14"/>
+      <c r="W4" s="14"/>
+      <c r="X4" s="14"/>
+      <c r="Y4" s="14"/>
+      <c r="Z4" s="14"/>
+      <c r="AA4" s="14"/>
+      <c r="AB4" s="14"/>
+      <c r="AC4" s="14"/>
+      <c r="AD4" s="14"/>
+      <c r="AE4" s="14"/>
+      <c r="AF4" s="14"/>
+      <c r="AG4" s="14"/>
+      <c r="AH4" s="14"/>
+      <c r="AI4" s="14"/>
+      <c r="AJ4" s="11"/>
+      <c r="AK4" s="11"/>
+      <c r="AL4" s="11"/>
+      <c r="AM4" s="11"/>
+      <c r="AN4" s="11"/>
     </row>
     <row r="5" spans="1:40">
       <c r="A5" s="1"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="18"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="6"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -983,8 +980,8 @@
     </row>
     <row r="6" spans="1:40">
       <c r="A6" s="1"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="18"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="6"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -1025,8 +1022,8 @@
     </row>
     <row r="7" spans="1:40">
       <c r="A7" s="1"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="18"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="6"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -1067,8 +1064,8 @@
     </row>
     <row r="8" spans="1:40">
       <c r="A8" s="1"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="18"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="6"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -1109,8 +1106,8 @@
     </row>
     <row r="9" spans="1:40">
       <c r="A9" s="1"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="18"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="6"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -1151,8 +1148,8 @@
     </row>
     <row r="10" spans="1:40">
       <c r="A10" s="1"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="18"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="6"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -1193,8 +1190,8 @@
     </row>
     <row r="11" spans="1:40">
       <c r="A11" s="1"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="18"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="6"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -1235,8 +1232,8 @@
     </row>
     <row r="12" spans="1:40">
       <c r="A12" s="1"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="18"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="6"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -1277,8 +1274,8 @@
     </row>
     <row r="13" spans="1:40">
       <c r="A13" s="1"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="18"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="6"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -1319,8 +1316,8 @@
     </row>
     <row r="14" spans="1:40">
       <c r="A14" s="1"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="18"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="6"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -1361,8 +1358,8 @@
     </row>
     <row r="15" spans="1:40">
       <c r="A15" s="1"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="18"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="6"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -1403,8 +1400,8 @@
     </row>
     <row r="16" spans="1:40">
       <c r="A16" s="1"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="18"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="6"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -1445,8 +1442,8 @@
     </row>
     <row r="17" spans="1:40">
       <c r="A17" s="1"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="18"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="6"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
@@ -1487,8 +1484,8 @@
     </row>
     <row r="18" spans="1:40">
       <c r="A18" s="1"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="18"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="6"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
@@ -1529,8 +1526,8 @@
     </row>
     <row r="19" spans="1:40">
       <c r="A19" s="1"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="18"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="6"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
@@ -1571,8 +1568,8 @@
     </row>
     <row r="20" spans="1:40">
       <c r="A20" s="1"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="18"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="6"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
@@ -1613,8 +1610,8 @@
     </row>
     <row r="21" spans="1:40">
       <c r="A21" s="1"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="18"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="6"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
@@ -1655,8 +1652,8 @@
     </row>
     <row r="22" spans="1:40">
       <c r="A22" s="1"/>
-      <c r="B22" s="22"/>
-      <c r="C22" s="23"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="8"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
@@ -1697,8 +1694,8 @@
     </row>
     <row r="23" spans="1:40">
       <c r="A23" s="1"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="18"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="6"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
@@ -1739,8 +1736,8 @@
     </row>
     <row r="24" spans="1:40">
       <c r="A24" s="1"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="18"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="6"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
@@ -1781,8 +1778,8 @@
     </row>
     <row r="25" spans="1:40">
       <c r="A25" s="1"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="18"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="6"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
@@ -1823,8 +1820,8 @@
     </row>
     <row r="26" spans="1:40">
       <c r="A26" s="1"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="18"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="6"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
@@ -1865,10 +1862,10 @@
     </row>
     <row r="27" spans="1:40" ht="15.75">
       <c r="A27" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B27" s="17"/>
-      <c r="C27" s="18"/>
+        <v>33</v>
+      </c>
+      <c r="B27" s="5"/>
+      <c r="C27" s="6"/>
       <c r="D27" s="2">
         <f>D26+D25+D24+D23+D22+D21+D20+D19+D18+D17+D16+D15+D14+D13+D12+D11+D10+D9+D8+D7+D6+D5</f>
         <v>0</v>
@@ -2133,26 +2130,32 @@
     </row>
   </sheetData>
   <mergeCells count="62">
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="J1:J4"/>
+    <mergeCell ref="K1:K4"/>
+    <mergeCell ref="L1:L4"/>
+    <mergeCell ref="M1:M4"/>
+    <mergeCell ref="A1:A4"/>
+    <mergeCell ref="B1:C4"/>
+    <mergeCell ref="D1:D4"/>
+    <mergeCell ref="E1:E4"/>
+    <mergeCell ref="F1:F4"/>
+    <mergeCell ref="G1:G4"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="AF1:AF4"/>
+    <mergeCell ref="AG1:AG4"/>
+    <mergeCell ref="AH1:AH4"/>
+    <mergeCell ref="AI1:AI4"/>
+    <mergeCell ref="Z1:Z4"/>
+    <mergeCell ref="AA1:AA4"/>
+    <mergeCell ref="AB1:AB4"/>
+    <mergeCell ref="AC1:AC4"/>
+    <mergeCell ref="AD1:AD4"/>
+    <mergeCell ref="AE1:AE4"/>
+    <mergeCell ref="T1:T4"/>
+    <mergeCell ref="U1:U4"/>
+    <mergeCell ref="V1:V4"/>
+    <mergeCell ref="W1:W4"/>
+    <mergeCell ref="X1:X4"/>
     <mergeCell ref="AL1:AL4"/>
     <mergeCell ref="AM1:AM4"/>
     <mergeCell ref="AN1:AN4"/>
@@ -2169,32 +2172,26 @@
     <mergeCell ref="S1:S4"/>
     <mergeCell ref="H1:H4"/>
     <mergeCell ref="I1:I4"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="AF1:AF4"/>
-    <mergeCell ref="AG1:AG4"/>
-    <mergeCell ref="AH1:AH4"/>
-    <mergeCell ref="AI1:AI4"/>
-    <mergeCell ref="Z1:Z4"/>
-    <mergeCell ref="AA1:AA4"/>
-    <mergeCell ref="AB1:AB4"/>
-    <mergeCell ref="AC1:AC4"/>
-    <mergeCell ref="AD1:AD4"/>
-    <mergeCell ref="AE1:AE4"/>
-    <mergeCell ref="T1:T4"/>
-    <mergeCell ref="U1:U4"/>
-    <mergeCell ref="V1:V4"/>
-    <mergeCell ref="W1:W4"/>
-    <mergeCell ref="X1:X4"/>
-    <mergeCell ref="J1:J4"/>
-    <mergeCell ref="K1:K4"/>
-    <mergeCell ref="L1:L4"/>
-    <mergeCell ref="M1:M4"/>
-    <mergeCell ref="A1:A4"/>
-    <mergeCell ref="B1:C4"/>
-    <mergeCell ref="D1:D4"/>
-    <mergeCell ref="E1:E4"/>
-    <mergeCell ref="F1:F4"/>
-    <mergeCell ref="G1:G4"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
